--- a/StructureDefinition-sm-patient.xlsx
+++ b/StructureDefinition-sm-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-16T04:57:47+00:00</t>
+    <t>2024-10-17T07:27:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sm-patient.xlsx
+++ b/StructureDefinition-sm-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="494">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T07:27:22+00:00</t>
+    <t>2024-10-17T09:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile represents the constraints applied to the Patient resource by the International Patient Summary FHIR Implementation Guide and describes the minimum expectations for the Patient resource when used in the composition or in one of the referred resources.</t>
+    <t>病人（Serious Medical Patient) Profile说明本IG如何进一步定义FHIR的Patient Resource以呈现基本资料</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -266,10 +266,10 @@
 </t>
   </si>
   <si>
-    <t>Information about an individual or animal receiving health care services</t>
-  </si>
-  <si>
-    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+    <t>接受健康医护服务的个人信息</t>
+  </si>
+  <si>
+    <t>关于接受医护或其他健康相关服务的个人的人口统计学和其他行政信息。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -295,13 +295,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
+    <t>不重复的ID用以识别储存在特定FHIR Server中的Patient纪录，通常又称为逻辑性ID。</t>
   </si>
   <si>
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>一个resource使用新增操作（create operation）提交给伺服器时，此resource没有id，它的id在resource被创建后由伺器分配/指定。</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -353,7 +353,7 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
+    <t>用以表述Patient Resource内容的语言。</t>
   </si>
   <si>
     <t>The base language in which the resource is written.</t>
@@ -362,10 +362,10 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
+    <t>zh-TW</t>
+  </si>
+  <si>
     <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -1404,6 +1404,9 @@
   </si>
   <si>
     <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect.</t>
+  </si>
+  <si>
+    <t>A human language.</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
@@ -2556,7 +2559,7 @@
         <v>20</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="U6" t="s" s="2">
         <v>20</v>
@@ -2568,11 +2571,9 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y6" t="s" s="2">
         <v>113</v>
       </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
         <v>114</v>
       </c>
@@ -8329,10 +8330,10 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>113</v>
+        <v>448</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>114</v>
@@ -8368,16 +8369,16 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8385,10 +8386,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8414,16 +8415,16 @@
         <v>233</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8472,7 +8473,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8487,16 +8488,16 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -8504,14 +8505,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8530,16 +8531,16 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8589,7 +8590,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8604,7 +8605,7 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>165</v>
@@ -8613,7 +8614,7 @@
         <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -8621,10 +8622,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8650,16 +8651,16 @@
         <v>225</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8708,7 +8709,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8726,7 +8727,7 @@
         <v>427</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
@@ -8740,10 +8741,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8769,16 +8770,16 @@
         <v>380</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -8827,7 +8828,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8842,7 +8843,7 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>165</v>
@@ -8859,10 +8860,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8974,10 +8975,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9091,10 +9092,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9210,10 +9211,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9236,16 +9237,16 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9295,7 +9296,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>88</v>
@@ -9319,7 +9320,7 @@
         <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9327,10 +9328,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9356,10 +9357,10 @@
         <v>108</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9389,10 +9390,10 @@
         <v>178</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -9410,7 +9411,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>88</v>
@@ -9425,7 +9426,7 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>165</v>

--- a/StructureDefinition-sm-patient.xlsx
+++ b/StructureDefinition-sm-patient.xlsx
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>SmPatientBase</t>
+    <t>SmPatient</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T01:26:48+00:00</t>
+    <t>2024-10-21T09:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -298,7 +298,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>一个resource使用新增操作（create operation）提交给伺服器时，此resource没有id，它的id在resource被创建后由伺器分配/指定。</t>
+    <t>一个resource使用新增操作（create operation）提交给伺服器时，此resource没有id，它的id在resource被创建后由服务器分配/指定。</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -2004,10 +2004,10 @@
     <t>病人是否为多胞胎；或多胞胎出生顺序。</t>
   </si>
   <si>
-    <t>表示病人是否是为多胞胎（布林值）或表示实际的出生顺序（整数值）</t>
-  </si>
-  <si>
-    <t>在提供valueInteger的情况下，这个数字是序列中的出生序。例如：三胞胎中的中间胎儿是valueInteger=2，第三胎儿是valueInteger=3，如果是为三胞胎提供布林值，那么所有3位病人的纪录都是valueBoolean=true（没有指明出生序）。</t>
+    <t>表示病人是否是为多胞胎（布尔值）或表示实际的出生顺序（整数值）</t>
+  </si>
+  <si>
+    <t>在提供valueInteger的情况下，这个数字是序列中的出生序。例如：三胞胎中的中间胎儿是valueInteger=2，第三胎儿是valueInteger=3，如果是为三胞胎提供布尔值，那么所有3位病人的纪录都是valueBoolean=true（没有指明出生序）。</t>
   </si>
   <si>
     <t>用于消除多胎孩童的歧义，特别是在医护人员没有见到病人的情况下，例如：在实验室。</t>

--- a/StructureDefinition-sm-patient.xlsx
+++ b/StructureDefinition-sm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T09:42:39+00:00</t>
+    <t>2024-10-31T17:01:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -359,7 +359,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>zh-cn</t>
+    <t>zh-CN</t>
   </si>
   <si>
     <t>preferred</t>

--- a/StructureDefinition-sm-patient.xlsx
+++ b/StructureDefinition-sm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T17:01:14+00:00</t>
+    <t>2024-11-08T09:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sm-patient.xlsx
+++ b/StructureDefinition-sm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T09:27:50+00:00</t>
+    <t>2024-11-11T08:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sm-patient.xlsx
+++ b/StructureDefinition-sm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T08:35:31+00:00</t>
+    <t>2024-11-11T09:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
